--- a/data/trans_dic/P6904-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6904-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,31%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,69%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,2%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>33,71; 62,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>12,21; 79,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>23,64; 74,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>39,14; 81,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>9,51; 69,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>40,7; 91,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>11,94; 75,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>39,54; 64,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>19,75; 62,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>36,31; 72,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>15,19; 66,75</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,29%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,61%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,91%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>39,9; 56,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>44,98; 66,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>47,24; 69,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>46,24; 77,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>31,68; 53,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>34,23; 59,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>49,9; 75,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>38,14; 67,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>38,48; 52,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>44,86; 61,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>51,48; 69,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>47,18; 68,85</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,14%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,09%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>49,52; 67,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>47,78; 68,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>55,04; 72,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>50,95; 71,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>45,28; 68,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>43,52; 68,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>52,76; 75,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>48,24; 66,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>50,77; 65,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>49,3; 64,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>57,3; 71,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>50,92; 65,79</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,48%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,71%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>38,89; 58,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>40,25; 61,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>44,35; 66,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>53,61; 71,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>47,66; 79,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>29,52; 61,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>49,54; 77,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>61,14; 77,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>43,25; 60,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>39,51; 58,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>50,09; 66,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>60,57; 72,89</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,78%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,9%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,9%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,32%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,77%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,55%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,64%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>48,02; 74,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>42,59; 71,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>47,69; 78,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>50,45; 73,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>7,04; 56,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>45,16; 83,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>66,64; 96,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>59,75; 77,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>41,89; 68,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>48,38; 72,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>58,75; 81,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>57,8; 72,95</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51,53%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>72,68%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,17%</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>4,89; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>22,68; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>23,81; 87,32</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,71%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,08%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,57%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,21%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>47,51; 57,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>48,93; 61,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>54,02; 65,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>56,15; 67,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>44,66; 58,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>44,7; 58,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>60,78; 73,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>57,7; 68,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>48,48; 56,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>49,01; 58,39</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>58,22; 66,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>57,79; 65,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6904-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>37,71%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,94; 75,8</t>
+          <t>11,74; 75,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,19; 66,75</t>
+          <t>14,86; 67,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,0%</t>
+          <t>62,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,59%</t>
+          <t>51,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>57,58%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,24; 77,42</t>
+          <t>45,33; 76,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,14; 67,4</t>
+          <t>37,27; 66,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,18; 68,85</t>
+          <t>46,77; 68,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>60,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,35%</t>
+          <t>57,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>59,09%</t>
+          <t>59,24%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,95; 71,0</t>
+          <t>50,94; 70,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,24; 66,19</t>
+          <t>48,4; 66,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>50,92; 65,79</t>
+          <t>51,02; 65,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>63,18%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>69,52%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>66,71%</t>
+          <t>69,67%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,61; 71,96</t>
+          <t>53,39; 71,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,14; 77,32</t>
+          <t>64,3; 86,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>60,57; 72,89</t>
+          <t>62,81; 81,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>62,9%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>68,9%</t>
+          <t>69,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>65,64%</t>
+          <t>65,63%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,45; 73,54</t>
+          <t>50,29; 73,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,75; 77,85</t>
+          <t>60,22; 78,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>57,8; 72,95</t>
+          <t>58,19; 73,13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>50,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>72,68%</t>
+          <t>72,91%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>62,17%</t>
+          <t>61,5%</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 100,0</t>
+          <t>5,36; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,68; 100,0</t>
+          <t>22,73; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,81; 87,32</t>
+          <t>23,18; 87,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>52,24%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>54,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>51,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>52,08%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>53,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>62,21%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>52,24%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>54,83%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>59,55%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>61,49%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>51,75%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>51,66%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>67,2%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>65,29%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>52,08%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>53,57%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>62,48%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>63,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>47,51; 57,21</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>48,93; 61,16</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>54,02; 65,28</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>56,15; 67,09</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>55,92; 67,08</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>44,66; 58,32</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>44,7; 58,16</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>60,78; 73,25</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>57,7; 68,42</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>59,17; 75,5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>48,48; 56,12</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>49,01; 58,39</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>58,22; 66,58</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>57,79; 65,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>59,03; 69,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P6904-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6904-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,71; 62,01</t>
+          <t>34,25; 63,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,21; 79,72</t>
+          <t>11,93; 74,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,64; 74,02</t>
+          <t>23,74; 72,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,14; 81,39</t>
+          <t>39,71; 81,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,51; 69,47</t>
+          <t>9,59; 70,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,7; 91,41</t>
+          <t>40,63; 91,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,74; 75,72</t>
+          <t>10,47; 73,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,54; 64,48</t>
+          <t>39,56; 64,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,75; 62,12</t>
+          <t>20,23; 62,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,31; 72,5</t>
+          <t>34,64; 72,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 67,05</t>
+          <t>14,64; 66,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,9; 56,52</t>
+          <t>39,4; 56,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,98; 66,74</t>
+          <t>45,16; 66,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,24; 69,73</t>
+          <t>46,58; 70,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,33; 76,91</t>
+          <t>44,81; 77,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,68; 53,95</t>
+          <t>31,03; 52,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,23; 59,41</t>
+          <t>34,66; 59,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,9; 75,5</t>
+          <t>49,41; 75,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,27; 66,56</t>
+          <t>37,97; 67,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,48; 52,6</t>
+          <t>39,69; 53,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,86; 61,24</t>
+          <t>44,25; 61,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,48; 69,53</t>
+          <t>52,71; 69,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>46,77; 68,56</t>
+          <t>46,53; 68,58</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,52; 67,04</t>
+          <t>49,54; 66,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,78; 68,89</t>
+          <t>48,35; 67,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>55,04; 72,85</t>
+          <t>55,61; 73,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,94; 70,81</t>
+          <t>48,81; 70,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,28; 68,78</t>
+          <t>45,32; 68,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,52; 68,23</t>
+          <t>43,21; 67,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,76; 75,0</t>
+          <t>52,91; 75,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,4; 66,46</t>
+          <t>48,05; 67,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>50,77; 65,3</t>
+          <t>51,07; 64,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,3; 64,6</t>
+          <t>49,96; 65,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>57,3; 71,48</t>
+          <t>57,44; 71,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>51,02; 65,81</t>
+          <t>52,44; 66,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,89; 58,07</t>
+          <t>37,34; 57,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,25; 61,26</t>
+          <t>39,42; 60,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,35; 66,49</t>
+          <t>45,16; 66,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,39; 71,74</t>
+          <t>53,69; 72,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,66; 79,79</t>
+          <t>49,71; 80,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,52; 61,84</t>
+          <t>30,03; 61,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,54; 77,14</t>
+          <t>50,58; 76,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,3; 86,42</t>
+          <t>65,3; 86,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,25; 60,47</t>
+          <t>43,67; 61,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,51; 58,26</t>
+          <t>40,3; 58,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,09; 66,84</t>
+          <t>50,02; 67,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>62,81; 81,1</t>
+          <t>61,97; 79,27</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,02; 74,15</t>
+          <t>46,71; 75,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,59; 71,93</t>
+          <t>40,17; 69,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,69; 78,22</t>
+          <t>46,66; 77,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,29; 73,39</t>
+          <t>50,45; 73,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,04; 56,18</t>
+          <t>7,1; 55,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,16; 83,85</t>
+          <t>43,4; 83,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,64; 96,3</t>
+          <t>68,43; 96,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,22; 78,15</t>
+          <t>60,39; 78,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>41,89; 68,43</t>
+          <t>40,26; 66,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,38; 72,72</t>
+          <t>49,08; 72,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58,75; 81,84</t>
+          <t>59,62; 82,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>58,19; 73,13</t>
+          <t>58,37; 73,02</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,73; 100,0</t>
+          <t>22,63; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,18; 87,02</t>
+          <t>24,76; 88,22</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>47,51; 57,21</t>
+          <t>47,36; 56,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,93; 61,16</t>
+          <t>49,21; 60,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>54,02; 65,28</t>
+          <t>54,1; 64,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>55,92; 67,08</t>
+          <t>55,63; 67,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>44,66; 58,32</t>
+          <t>45,5; 59,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>44,7; 58,16</t>
+          <t>44,37; 58,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>60,78; 73,25</t>
+          <t>60,83; 73,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>59,17; 75,5</t>
+          <t>59,44; 75,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>48,48; 56,12</t>
+          <t>48,19; 55,86</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>49,01; 58,39</t>
+          <t>49,01; 58,03</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>58,22; 66,58</t>
+          <t>58,35; 66,58</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>59,03; 69,14</t>
+          <t>59,07; 69,2</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores musculares</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22059</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4441</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8222</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12480</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3860</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7812</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6239</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>34539</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8301</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16034</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15814; 29332</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1232; 7665</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4071; 12452</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5989</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7886; 16165</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>964; 7058</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4730; 10664</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1606; 11326</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26123; 42593</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4124; 12723</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9975; 20771</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3123; 14247</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>68395</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48341</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>48236</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36874</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33454</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31325</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29262</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25897</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>101850</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>79665</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>77497</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>62771</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>56061; 81011</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>38966; 57596</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>37996; 57612</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26472; 45491</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24599; 41873</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22898; 39363</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22874; 35072</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18966; 33475</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>87943; 117629</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>67420; 93226</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>67396; 88503</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>50726; 74769</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>73696</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56281</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>73041</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>57919</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>40278</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40626</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46069</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43432</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>113974</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96908</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>119110</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>101351</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>62439; 84396</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>46877; 65808</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62913; 83369</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>46632; 66988</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>31743; 47935</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>31385; 48839</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37808; 53700</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>36299; 50792</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>100130; 126994</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>84727; 110342</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>106023; 131326</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>89718; 113552</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>53120</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>45285</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>50335</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>68515</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>23869</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18301</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35943</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>115075</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>76989</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>63587</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>86279</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>183590</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>41487; 64343</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>35494; 54681</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41290; 60522</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>58281; 79179</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18411; 29744</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12110; 24767</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28378; 43060</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>101178; 134541</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>64701; 90805</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>52544; 75850</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73803; 99653</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>163284; 208868</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>28642</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24093</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28605</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>42196</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3835</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16271</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26276</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38492</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>32478</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>40364</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>54881</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>80688</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>21432; 34466</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16804; 29246</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20926; 34761</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>34020; 49414</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>988; 7680</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10669; 20581</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>21076; 29712</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>33522; 43573</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24070; 40045</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>32594; 48320</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>45099; 62172</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>71763; 89776</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3589</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1070</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>157; 2923</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>659; 2914</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1070</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1445; 5148</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>246734</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>178441</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>208440</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>208774</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>113916</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>110383</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>145362</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>231260</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>360650</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>288825</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>353802</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>440034</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>223693; 268198</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>160143; 197915</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>189336; 227259</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>188867; 227692</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100160; 129872</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>94801; 124703</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>131567; 159313</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>210530; 266559</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>333659; 386773</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>264194; 312849</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>330461; 377016</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>409751; 480048</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>